--- a/Excel/Strings/ENG.xlsx
+++ b/Excel/Strings/ENG.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\Strings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D92DC83-94F3-4254-9698-665EFF6C342C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9730D5-EDE6-46EF-891A-AB4353985302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C2D0CD-F272-4A54-AD1A-9BD858FED9BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C2D0CD-F272-4A54-AD1A-9BD858FED9BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="InApkStringTable" sheetId="1" r:id="rId1"/>
+    <sheet name="StringTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
